--- a/legendre_out/DATA/p2/p2_dataPointsAtSingleEnergy.xlsx
+++ b/legendre_out/DATA/p2/p2_dataPointsAtSingleEnergy.xlsx
@@ -391,10 +391,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000402607773</v>
+        <v>0.000400570276</v>
       </c>
       <c r="D2" t="n">
-        <v>2.1640201e-05</v>
+        <v>2.15544414e-05</v>
       </c>
     </row>
     <row r="3">
@@ -405,10 +405,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>0.000356409024</v>
+        <v>0.000359141388</v>
       </c>
       <c r="D3" t="n">
-        <v>2.07383598e-05</v>
+        <v>2.0886194e-05</v>
       </c>
     </row>
     <row r="4">
@@ -419,10 +419,10 @@
         <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000344048313</v>
+        <v>0.000344126121</v>
       </c>
       <c r="D4" t="n">
-        <v>2.02246605e-05</v>
+        <v>2.02477021e-05</v>
       </c>
     </row>
     <row r="5">
@@ -433,10 +433,10 @@
         <v>45</v>
       </c>
       <c r="C5" t="n">
-        <v>0.000327057861</v>
+        <v>0.000329104826</v>
       </c>
       <c r="D5" t="n">
-        <v>1.95068899e-05</v>
+        <v>1.95721125e-05</v>
       </c>
     </row>
     <row r="6">
@@ -447,10 +447,10 @@
         <v>90</v>
       </c>
       <c r="C6" t="n">
-        <v>0.000244262109</v>
+        <v>0.000237882185</v>
       </c>
       <c r="D6" t="n">
-        <v>1.73094299e-05</v>
+        <v>1.69237188e-05</v>
       </c>
     </row>
     <row r="7">
@@ -461,10 +461,10 @@
         <v>75.00000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.000264724282</v>
+        <v>0.000263025099</v>
       </c>
       <c r="D7" t="n">
-        <v>1.5659518e-05</v>
+        <v>1.55866442e-05</v>
       </c>
     </row>
     <row r="8">
@@ -475,10 +475,10 @@
         <v>59.99999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.000284942992</v>
+        <v>0.000284723577</v>
       </c>
       <c r="D8" t="n">
-        <v>1.65272114e-05</v>
+        <v>1.64907553e-05</v>
       </c>
     </row>
   </sheetData>
